--- a/blacklist.xlsx
+++ b/blacklist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -488,6 +488,18 @@
         </is>
       </c>
       <c r="B5" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test3@gmail.com</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>blacklisted</t>
         </is>

--- a/blacklist.xlsx
+++ b/blacklist.xlsx
@@ -1,41 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\Sem 5\FYP\Program\9.0 (debugging)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBC12B8-8C17-4ED3-9E42-4E4EB0D71C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="28680" yWindow="-2595" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="blacklist" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="blacklist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+  <si>
+    <t>cl3rs@yandex.ua</t>
+  </si>
+  <si>
+    <t>blacklisted</t>
+  </si>
+  <si>
+    <t>ibrahimsalifou150@gmail.com</t>
+  </si>
+  <si>
+    <t>tarjetabenavides@farmaciasbenavides.com.mx</t>
+  </si>
+  <si>
+    <t>hotelscom@roktpowered.com</t>
+  </si>
+  <si>
+    <t>manager@cbcbuilding.com</t>
+  </si>
+  <si>
+    <t>bestbuyinfo@fashionlab.com.ua</t>
+  </si>
+  <si>
+    <t>payment@epayment.com</t>
+  </si>
+  <si>
+    <t>info@news.samsung.com</t>
+  </si>
+  <si>
+    <t>info@confirm.com</t>
+  </si>
+  <si>
+    <t>info@paypal.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,87 +85,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,98 +395,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>testing1@outlook.com</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>blacklisted</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>testing1@outlook.com</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>blacklisted</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>testing1@outlook.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>blacklisted</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>test3@gmail.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>blacklisted</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>testtttt@gmail.com</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>blacklisted</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>test3@gmail.com</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>blacklisted</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink display="testing1@outlook.com" ref="A2" r:id="rId2"/>
-    <hyperlink display="testing1@outlook.com" ref="A3" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/blacklist.xlsx
+++ b/blacklist.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="blacklist" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="tekkwang1996@gmail.com" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,20 +17,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,19 +43,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -420,23 +411,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>testing1@outlook.com</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>cl3rs@yandex.ua</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -446,9 +440,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>testing1@outlook.com</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ibrahimsalifou150@gmail.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -458,9 +452,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>testing1@outlook.com</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tarjetabenavides@farmaciasbenavides.com.mx</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +466,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>test3@gmail.com</t>
+          <t>hotelscom@roktpowered.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>testtttt@gmail.com</t>
+          <t>manager@cbcbuilding.com</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -493,13 +487,259 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bestbuyinfo@fashionlab.com.ua</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>payment@epayment.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>info@news.samsung.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>info@confirm.com</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>info@paypal.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink display="testing1@outlook.com" ref="A2" r:id="rId2"/>
-    <hyperlink display="testing1@outlook.com" ref="A3" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>cl3rs@yandex.ua</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ibrahimsalifou150@gmail.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tarjetabenavides@farmaciasbenavides.com.mx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hotelscom@roktpowered.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>manager@cbcbuilding.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bestbuyinfo@fashionlab.com.ua</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>payment@epayment.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>info@news.samsung.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>info@confirm.com</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>info@paypal.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>thisisfake@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>testest@outlook.com</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>googleplay-noreply@google.com</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>investors@exodus.com</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>blacklisted</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>